--- a/biology/Médecine/1446_en_santé_et_médecine/1446_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1446_en_santé_et_médecine/1446_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1446_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1446_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1446 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1446_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1446_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>18 octobre : fondation par le roi Henri VI de la Barber-Surgeons' Guild (« compagnie des barbiers-chirurgiens ») de Dublin, première association médicale des îles Britanniques[1].
-En Franche-Comté, la maladrerie de La Vèze est détruite par un incendie et celle d'Arbois n'accueille plus aucun lépreux[2].
-Fondation par Alphonse le Magnanime, roi d'Aragon, de l'université de Gérone, dotée dès l'origine d'une faculté de médecine[3].
-Une lettre de rémission est accordée par le roi Charles VII à un laboureur de Wissous en Hurepoix, dans le domaine royal, « pour l'euthanasie de son frère atteint de la rage[4] ».</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>18 octobre : fondation par le roi Henri VI de la Barber-Surgeons' Guild (« compagnie des barbiers-chirurgiens ») de Dublin, première association médicale des îles Britanniques.
+En Franche-Comté, la maladrerie de La Vèze est détruite par un incendie et celle d'Arbois n'accueille plus aucun lépreux.
+Fondation par Alphonse le Magnanime, roi d'Aragon, de l'université de Gérone, dotée dès l'origine d'une faculté de médecine.
+Une lettre de rémission est accordée par le roi Charles VII à un laboureur de Wissous en Hurepoix, dans le domaine royal, « pour l'euthanasie de son frère atteint de la rage ».</t>
         </is>
       </c>
     </row>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1446_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1446_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Traduction anglaise de la Philomena de John Bradmore († 1412), chirurgien du roi Henri IV, traité de chirurgie rédigé en latin entre 1403 et la mort de l'auteur[5].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Traduction anglaise de la Philomena de John Bradmore († 1412), chirurgien du roi Henri IV, traité de chirurgie rédigé en latin entre 1403 et la mort de l'auteur.</t>
         </is>
       </c>
     </row>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1446_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1446_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,16 +590,18 @@
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Fl. Guillaume Laguiole[6] et Jean Bordelli[6], barbiers, respectivement à Bozouls dans le Rouergue et Calvisson en Languedoc.
-Fl. Guichard de Tronchonaz, barbier ou chirurgien à Genève[7].
-Fl. Élie Combareil, chirurgien à Saint-Geniez-d'Olt, en Rouergue[6].
-Fl. Abraham Salomon, médecin, « au service du roi René qui le dispens[e] de toute imposition judaïque[7] ».
-1424-1446 : fl. Étienne Manissier, barbier, à Lyon, plusieurs fois « élu maître du métier[7] ».
-1444-1446 : fl. Thomas Berthonel, docteur en médecine, établi à Toulouse[6].
-1446-1460 : fl. Barthélemy Montagnana, professeur de médecine à Padoue[8].
-1446-1477 : fl. Gérard Jeronimi, clerc et médecin, reçu docteur à Paris, membre et bienfaiteur du chapitre de Reims[7].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Fl. Guillaume Laguiole et Jean Bordelli, barbiers, respectivement à Bozouls dans le Rouergue et Calvisson en Languedoc.
+Fl. Guichard de Tronchonaz, barbier ou chirurgien à Genève.
+Fl. Élie Combareil, chirurgien à Saint-Geniez-d'Olt, en Rouergue.
+Fl. Abraham Salomon, médecin, « au service du roi René qui le dispens[e] de toute imposition judaïque ».
+1424-1446 : fl. Étienne Manissier, barbier, à Lyon, plusieurs fois « élu maître du métier ».
+1444-1446 : fl. Thomas Berthonel, docteur en médecine, établi à Toulouse.
+1446-1460 : fl. Barthélemy Montagnana, professeur de médecine à Padoue.
+1446-1477 : fl. Gérard Jeronimi, clerc et médecin, reçu docteur à Paris, membre et bienfaiteur du chapitre de Reims.</t>
         </is>
       </c>
     </row>
@@ -593,7 +611,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1446_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1446_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -611,11 +629,13 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Avant juillet : Jean Ganivet (né à une date inconnue), franciscain de Vienne, auteur de l'Amicus medicorum (1431), traité d'astrologie médicale inspiré du Judicium de urina non visa (1220) de Guillaume l'Anglais[9].
-6 octobre : Guillaume Lefranchois (né à une date inconnue), docteur en médecine et théologien dont le transi est exposé au musée des beaux-arts d'Arras[10].
-Étienne de Rovroy (né à une date inconnue), professeur de médecine à Paris, doyen de la faculté en 1416-1417[7].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Avant juillet : Jean Ganivet (né à une date inconnue), franciscain de Vienne, auteur de l'Amicus medicorum (1431), traité d'astrologie médicale inspiré du Judicium de urina non visa (1220) de Guillaume l'Anglais.
+6 octobre : Guillaume Lefranchois (né à une date inconnue), docteur en médecine et théologien dont le transi est exposé au musée des beaux-arts d'Arras.
+Étienne de Rovroy (né à une date inconnue), professeur de médecine à Paris, doyen de la faculté en 1416-1417.</t>
         </is>
       </c>
     </row>
